--- a/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/絶対量報告(仮).xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/絶対量報告(仮).xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\results\記録用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\results\記録用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="11910" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="11910" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="6" sheetId="2" r:id="rId2"/>
     <sheet name="12" sheetId="3" r:id="rId3"/>
     <sheet name="グラフたち" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,8 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +59,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -81,20 +90,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,7 +127,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -283,6 +299,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9E3-4CA5-93AC-5DA9A10E5958}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -449,7 +470,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -621,6 +642,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0894-4878-A2F3-3B479279B279}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -787,7 +813,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -958,6 +984,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5585-4760-BA96-A85B351BDBA1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1038,6 +1069,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5585-4760-BA96-A85B351BDBA1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1118,6 +1154,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5585-4760-BA96-A85B351BDBA1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1284,7 +1325,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1464,6 +1505,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B29-427A-9BDF-D013DFF2CDC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1544,6 +1590,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B29-427A-9BDF-D013DFF2CDC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1624,6 +1675,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B29-427A-9BDF-D013DFF2CDC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1704,6 +1760,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5B29-427A-9BDF-D013DFF2CDC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1902,7 +1963,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2074,6 +2135,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88E4-43F2-827A-297283DA0AB5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5385,7 +5451,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D19"/>
+      <selection activeCell="C1" sqref="C1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7518,6 +7584,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8595,7 +8662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -8605,4 +8672,368 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <f>D1/$D$20</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E20" si="0">D2/$D$20</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2336103416435823E-4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2336103416435823E-4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <f>B6+B7</f>
+        <v>108</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9861495844875349E-2</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>452</v>
+      </c>
+      <c r="D9">
+        <v>452</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20867959372114497</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>514</v>
+      </c>
+      <c r="D10">
+        <v>514</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23730378578024008</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1181</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>277</v>
+      </c>
+      <c r="D12">
+        <v>277</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12788550323176362</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>811</v>
+      </c>
+      <c r="D13">
+        <v>811</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37442289935364725</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <f>SUM(B1:B19)</f>
+        <v>3415</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D1:D19)</f>
+        <v>2166</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>